--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 63207-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 63207-2019.xlsx", "A 63207-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 63207-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 63207-2019.png", "A 63207-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 63207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 63207-2019.docx", "A 63207-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 63207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 63207-2019.docx", "A 63207-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 63207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 63207-2019.docx", "A 63207-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 63207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 63207-2019.docx", "A 63207-2019")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -731,27 +731,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 19990-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 19990-2019.xlsx", "A 19990-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 19990-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 19990-2019.png", "A 19990-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 19990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 19990-2019.docx", "A 19990-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 19990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 19990-2019.docx", "A 19990-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 19990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 19990-2019.docx", "A 19990-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 19990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 19990-2019.docx", "A 19990-2019")</f>
         <v/>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,31 +823,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 21249-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 21249-2022.xlsx", "A 21249-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 21249-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 21249-2022.png", "A 21249-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 21249-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 21249-2022.png", "A 21249-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 21249-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 21249-2022.docx", "A 21249-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 21249-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 21249-2022.docx", "A 21249-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 21249-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 21249-2022.docx", "A 21249-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 21249-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 21249-2022.docx", "A 21249-2022")</f>
         <v/>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,27 +918,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 44963-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 44963-2019.xlsx", "A 44963-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 44963-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 44963-2019.png", "A 44963-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 44963-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 44963-2019.docx", "A 44963-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 44963-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 44963-2019.docx", "A 44963-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 44963-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 44963-2019.docx", "A 44963-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 44963-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 44963-2019.docx", "A 44963-2019")</f>
         <v/>
       </c>
     </row>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,31 +1009,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 46465-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 46465-2019.xlsx", "A 46465-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 46465-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 46465-2019.png", "A 46465-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 46465-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 46465-2019.png", "A 46465-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 46465-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 46465-2019.docx", "A 46465-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 46465-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 46465-2019.docx", "A 46465-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 46465-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 46465-2019.docx", "A 46465-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 46465-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 46465-2019.docx", "A 46465-2019")</f>
         <v/>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,27 +1104,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 51291-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 51291-2020.xlsx", "A 51291-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 51291-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 51291-2020.png", "A 51291-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 51291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 51291-2020.docx", "A 51291-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 51291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 51291-2020.docx", "A 51291-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 51291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 51291-2020.docx", "A 51291-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 51291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 51291-2020.docx", "A 51291-2020")</f>
         <v/>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,31 +1194,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 59898-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 59898-2021.xlsx", "A 59898-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 59898-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 59898-2021.png", "A 59898-2021")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 59898-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 59898-2021.png", "A 59898-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 59898-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 59898-2021.docx", "A 59898-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 59898-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 59898-2021.docx", "A 59898-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 59898-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 59898-2021.docx", "A 59898-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 59898-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 59898-2021.docx", "A 59898-2021")</f>
         <v/>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,27 +1288,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 25497-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 25497-2023.xlsx", "A 25497-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 25497-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 25497-2023.png", "A 25497-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 25497-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 25497-2023.docx", "A 25497-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 25497-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 25497-2023.docx", "A 25497-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 25497-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 25497-2023.docx", "A 25497-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 25497-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 25497-2023.docx", "A 25497-2023")</f>
         <v/>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,27 +1376,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 8442-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 8442-2019.xlsx", "A 8442-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 8442-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 8442-2019.png", "A 8442-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 8442-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 8442-2019.docx", "A 8442-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 8442-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 8442-2019.docx", "A 8442-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 8442-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 8442-2019.docx", "A 8442-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 8442-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 8442-2019.docx", "A 8442-2019")</f>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,31 +1464,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 31375-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 31375-2019.xlsx", "A 31375-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 31375-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 31375-2019.png", "A 31375-2019")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 31375-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 31375-2019.png", "A 31375-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 31375-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 31375-2019.docx", "A 31375-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 31375-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 31375-2019.docx", "A 31375-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 31375-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 31375-2019.docx", "A 31375-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 31375-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 31375-2019.docx", "A 31375-2019")</f>
         <v/>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,31 +1556,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 48542-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 48542-2019.xlsx", "A 48542-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 48542-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 48542-2019.png", "A 48542-2019")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 48542-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 48542-2019.png", "A 48542-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 48542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 48542-2019.docx", "A 48542-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 48542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 48542-2019.docx", "A 48542-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 48542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 48542-2019.docx", "A 48542-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 48542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 48542-2019.docx", "A 48542-2019")</f>
         <v/>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,31 +1648,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 66733-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 66733-2020.xlsx", "A 66733-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 66733-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 66733-2020.png", "A 66733-2020")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 66733-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 66733-2020.png", "A 66733-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 66733-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 66733-2020.docx", "A 66733-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 66733-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 66733-2020.docx", "A 66733-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 66733-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 66733-2020.docx", "A 66733-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 66733-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 66733-2020.docx", "A 66733-2020")</f>
         <v/>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 12048-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 12048-2021.xlsx", "A 12048-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 12048-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 12048-2021.png", "A 12048-2021")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 12048-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 12048-2021.png", "A 12048-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 12048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 12048-2021.docx", "A 12048-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 12048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 12048-2021.docx", "A 12048-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 12048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 12048-2021.docx", "A 12048-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 12048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 12048-2021.docx", "A 12048-2021")</f>
         <v/>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1832,27 +1832,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 62812-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 62812-2021.xlsx", "A 62812-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 62812-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 62812-2021.png", "A 62812-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 62812-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 62812-2021.docx", "A 62812-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 62812-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 62812-2021.docx", "A 62812-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 62812-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 62812-2021.docx", "A 62812-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 62812-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 62812-2021.docx", "A 62812-2021")</f>
         <v/>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,27 +1919,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 52330-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 52330-2018.xlsx", "A 52330-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 52330-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 52330-2018.png", "A 52330-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 52330-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 52330-2018.docx", "A 52330-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 52330-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 52330-2018.docx", "A 52330-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 52330-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 52330-2018.docx", "A 52330-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 52330-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 52330-2018.docx", "A 52330-2018")</f>
         <v/>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2006,31 +2006,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 12013-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 12013-2023.xlsx", "A 12013-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 12013-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 12013-2023.png", "A 12013-2023")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 12013-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 12013-2023.png", "A 12013-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 12013-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 12013-2023.docx", "A 12013-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 12013-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 12013-2023.docx", "A 12013-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 12013-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 12013-2023.docx", "A 12013-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 12013-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 12013-2023.docx", "A 12013-2023")</f>
         <v/>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,27 +2096,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 7092-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 7092-2019.xlsx", "A 7092-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 7092-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 7092-2019.png", "A 7092-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 7092-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 7092-2019.docx", "A 7092-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 7092-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 7092-2019.docx", "A 7092-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 7092-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 7092-2019.docx", "A 7092-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 7092-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 7092-2019.docx", "A 7092-2019")</f>
         <v/>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,27 +2182,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 40210-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 40210-2019.xlsx", "A 40210-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 40210-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 40210-2019.png", "A 40210-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 40210-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 40210-2019.docx", "A 40210-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 40210-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 40210-2019.docx", "A 40210-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 40210-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 40210-2019.docx", "A 40210-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 40210-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 40210-2019.docx", "A 40210-2019")</f>
         <v/>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,31 +2268,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 24921-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 24921-2020.xlsx", "A 24921-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 24921-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 24921-2020.png", "A 24921-2020")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 24921-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 24921-2020.png", "A 24921-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 24921-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 24921-2020.docx", "A 24921-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 24921-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 24921-2020.docx", "A 24921-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 24921-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 24921-2020.docx", "A 24921-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 24921-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 24921-2020.docx", "A 24921-2020")</f>
         <v/>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,27 +2363,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 1809-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 1809-2021.xlsx", "A 1809-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 1809-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 1809-2021.png", "A 1809-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 1809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 1809-2021.docx", "A 1809-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 1809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 1809-2021.docx", "A 1809-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 1809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 1809-2021.docx", "A 1809-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 1809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 1809-2021.docx", "A 1809-2021")</f>
         <v/>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,27 +2449,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 20623-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 20623-2021.xlsx", "A 20623-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 20623-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 20623-2021.png", "A 20623-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 20623-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 20623-2021.docx", "A 20623-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 20623-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 20623-2021.docx", "A 20623-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 20623-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 20623-2021.docx", "A 20623-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 20623-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 20623-2021.docx", "A 20623-2021")</f>
         <v/>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2535,27 +2535,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 49727-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 49727-2021.xlsx", "A 49727-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 49727-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 49727-2021.png", "A 49727-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 49727-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 49727-2021.docx", "A 49727-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 49727-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 49727-2021.docx", "A 49727-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 49727-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 49727-2021.docx", "A 49727-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 49727-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 49727-2021.docx", "A 49727-2021")</f>
         <v/>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2626,27 +2626,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 42930-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 42930-2022.xlsx", "A 42930-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 42930-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 42930-2022.png", "A 42930-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 42930-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 42930-2022.docx", "A 42930-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 42930-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 42930-2022.docx", "A 42930-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 42930-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 42930-2022.docx", "A 42930-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 42930-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 42930-2022.docx", "A 42930-2022")</f>
         <v/>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2712,27 +2712,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 49737-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 49737-2022.xlsx", "A 49737-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 49737-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 49737-2022.png", "A 49737-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 49737-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 49737-2022.docx", "A 49737-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 49737-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 49737-2022.docx", "A 49737-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 49737-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 49737-2022.docx", "A 49737-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 49737-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 49737-2022.docx", "A 49737-2022")</f>
         <v/>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2798,27 +2798,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 62341-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 62341-2022.xlsx", "A 62341-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 62341-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 62341-2022.png", "A 62341-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 62341-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 62341-2022.docx", "A 62341-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 62341-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 62341-2022.docx", "A 62341-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 62341-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 62341-2022.docx", "A 62341-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 62341-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 62341-2022.docx", "A 62341-2022")</f>
         <v/>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2889,27 +2889,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 1917-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 1917-2023.xlsx", "A 1917-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 1917-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 1917-2023.png", "A 1917-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 1917-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 1917-2023.docx", "A 1917-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 1917-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 1917-2023.docx", "A 1917-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 1917-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 1917-2023.docx", "A 1917-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 1917-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 1917-2023.docx", "A 1917-2023")</f>
         <v/>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2975,27 +2975,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 26057-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 26057-2023.xlsx", "A 26057-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 26057-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 26057-2023.png", "A 26057-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 26057-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 26057-2023.docx", "A 26057-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 26057-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 26057-2023.docx", "A 26057-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 26057-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 26057-2023.docx", "A 26057-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 26057-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 26057-2023.docx", "A 26057-2023")</f>
         <v/>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3061,27 +3061,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 28468-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 28468-2023.xlsx", "A 28468-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 28468-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 28468-2023.png", "A 28468-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 28468-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 28468-2023.docx", "A 28468-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 28468-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 28468-2023.docx", "A 28468-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 28468-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 28468-2023.docx", "A 28468-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 28468-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 28468-2023.docx", "A 28468-2023")</f>
         <v/>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3146,27 +3146,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 4955-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 4955-2019.xlsx", "A 4955-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 4955-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 4955-2019.png", "A 4955-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 4955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 4955-2019.docx", "A 4955-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 4955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 4955-2019.docx", "A 4955-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 4955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 4955-2019.docx", "A 4955-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 4955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 4955-2019.docx", "A 4955-2019")</f>
         <v/>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3236,27 +3236,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 4988-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 4988-2019.xlsx", "A 4988-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 4988-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 4988-2019.png", "A 4988-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 4988-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 4988-2019.docx", "A 4988-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 4988-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 4988-2019.docx", "A 4988-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 4988-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 4988-2019.docx", "A 4988-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 4988-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 4988-2019.docx", "A 4988-2019")</f>
         <v/>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3321,27 +3321,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 9887-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 9887-2019.xlsx", "A 9887-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 9887-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 9887-2019.png", "A 9887-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 9887-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 9887-2019.docx", "A 9887-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 9887-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 9887-2019.docx", "A 9887-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 9887-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 9887-2019.docx", "A 9887-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 9887-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 9887-2019.docx", "A 9887-2019")</f>
         <v/>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3406,27 +3406,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 29192-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 29192-2019.xlsx", "A 29192-2019")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 29192-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 29192-2019.png", "A 29192-2019")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 29192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 29192-2019.docx", "A 29192-2019")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 29192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 29192-2019.docx", "A 29192-2019")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 29192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 29192-2019.docx", "A 29192-2019")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 29192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 29192-2019.docx", "A 29192-2019")</f>
         <v/>
       </c>
     </row>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3491,27 +3491,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 40952-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 40952-2019.xlsx", "A 40952-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 40952-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 40952-2019.png", "A 40952-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 40952-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 40952-2019.docx", "A 40952-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 40952-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 40952-2019.docx", "A 40952-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 40952-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 40952-2019.docx", "A 40952-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 40952-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 40952-2019.docx", "A 40952-2019")</f>
         <v/>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,31 +3576,31 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 63168-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 63168-2019.xlsx", "A 63168-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 63168-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 63168-2019.png", "A 63168-2019")</f>
         <v/>
       </c>
       <c r="U35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 63168-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 63168-2019.png", "A 63168-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 63168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 63168-2019.docx", "A 63168-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 63168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 63168-2019.docx", "A 63168-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 63168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 63168-2019.docx", "A 63168-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 63168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 63168-2019.docx", "A 63168-2019")</f>
         <v/>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3670,27 +3670,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 63735-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 63735-2019.xlsx", "A 63735-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 63735-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 63735-2019.png", "A 63735-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 63735-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 63735-2019.docx", "A 63735-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 63735-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 63735-2019.docx", "A 63735-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 63735-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 63735-2019.docx", "A 63735-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 63735-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 63735-2019.docx", "A 63735-2019")</f>
         <v/>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3760,27 +3760,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 4757-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 4757-2020.xlsx", "A 4757-2020")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 4757-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 4757-2020.png", "A 4757-2020")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 4757-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 4757-2020.docx", "A 4757-2020")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 4757-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 4757-2020.docx", "A 4757-2020")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 4757-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 4757-2020.docx", "A 4757-2020")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 4757-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 4757-2020.docx", "A 4757-2020")</f>
         <v/>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,31 +3850,31 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 5701-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 5701-2020.xlsx", "A 5701-2020")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 5701-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 5701-2020.png", "A 5701-2020")</f>
         <v/>
       </c>
       <c r="U38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 5701-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 5701-2020.png", "A 5701-2020")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 5701-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 5701-2020.docx", "A 5701-2020")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 5701-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 5701-2020.docx", "A 5701-2020")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 5701-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 5701-2020.docx", "A 5701-2020")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 5701-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 5701-2020.docx", "A 5701-2020")</f>
         <v/>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3939,27 +3939,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 33646-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 33646-2020.xlsx", "A 33646-2020")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 33646-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 33646-2020.png", "A 33646-2020")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 33646-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 33646-2020.docx", "A 33646-2020")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 33646-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 33646-2020.docx", "A 33646-2020")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 33646-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 33646-2020.docx", "A 33646-2020")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 33646-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 33646-2020.docx", "A 33646-2020")</f>
         <v/>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4024,27 +4024,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 34610-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 34610-2020.xlsx", "A 34610-2020")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 34610-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 34610-2020.png", "A 34610-2020")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 34610-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 34610-2020.docx", "A 34610-2020")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 34610-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 34610-2020.docx", "A 34610-2020")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 34610-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 34610-2020.docx", "A 34610-2020")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 34610-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 34610-2020.docx", "A 34610-2020")</f>
         <v/>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4109,27 +4109,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 37018-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 37018-2020.xlsx", "A 37018-2020")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 37018-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 37018-2020.png", "A 37018-2020")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 37018-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 37018-2020.docx", "A 37018-2020")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 37018-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 37018-2020.docx", "A 37018-2020")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 37018-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 37018-2020.docx", "A 37018-2020")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 37018-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 37018-2020.docx", "A 37018-2020")</f>
         <v/>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4194,27 +4194,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 41394-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 41394-2020.xlsx", "A 41394-2020")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 41394-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 41394-2020.png", "A 41394-2020")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 41394-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 41394-2020.docx", "A 41394-2020")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 41394-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 41394-2020.docx", "A 41394-2020")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 41394-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 41394-2020.docx", "A 41394-2020")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 41394-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 41394-2020.docx", "A 41394-2020")</f>
         <v/>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4284,27 +4284,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 45420-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 45420-2020.xlsx", "A 45420-2020")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 45420-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 45420-2020.png", "A 45420-2020")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 45420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 45420-2020.docx", "A 45420-2020")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 45420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 45420-2020.docx", "A 45420-2020")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 45420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 45420-2020.docx", "A 45420-2020")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 45420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 45420-2020.docx", "A 45420-2020")</f>
         <v/>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4369,27 +4369,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 45886-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 45886-2020.xlsx", "A 45886-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 45886-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 45886-2020.png", "A 45886-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 45886-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 45886-2020.docx", "A 45886-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 45886-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 45886-2020.docx", "A 45886-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 45886-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 45886-2020.docx", "A 45886-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 45886-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 45886-2020.docx", "A 45886-2020")</f>
         <v/>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4454,31 +4454,31 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 52984-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 52984-2020.xlsx", "A 52984-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 52984-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 52984-2020.png", "A 52984-2020")</f>
         <v/>
       </c>
       <c r="U45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 52984-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 52984-2020.png", "A 52984-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 52984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 52984-2020.docx", "A 52984-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 52984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 52984-2020.docx", "A 52984-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 52984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 52984-2020.docx", "A 52984-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 52984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 52984-2020.docx", "A 52984-2020")</f>
         <v/>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 55805-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 55805-2020.xlsx", "A 55805-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 55805-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 55805-2020.png", "A 55805-2020")</f>
         <v/>
       </c>
       <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 55805-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 55805-2020.png", "A 55805-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 55805-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 55805-2020.docx", "A 55805-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 55805-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 55805-2020.docx", "A 55805-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 55805-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 55805-2020.docx", "A 55805-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 55805-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 55805-2020.docx", "A 55805-2020")</f>
         <v/>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4632,27 +4632,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 63385-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 63385-2020.xlsx", "A 63385-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 63385-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 63385-2020.png", "A 63385-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 63385-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 63385-2020.docx", "A 63385-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 63385-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 63385-2020.docx", "A 63385-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 63385-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 63385-2020.docx", "A 63385-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 63385-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 63385-2020.docx", "A 63385-2020")</f>
         <v/>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4722,27 +4722,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 927-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 927-2021.xlsx", "A 927-2021")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 927-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 927-2021.png", "A 927-2021")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 927-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 927-2021.docx", "A 927-2021")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 927-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 927-2021.docx", "A 927-2021")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 927-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 927-2021.docx", "A 927-2021")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 927-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 927-2021.docx", "A 927-2021")</f>
         <v/>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4812,27 +4812,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 4737-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 4737-2021.xlsx", "A 4737-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 4737-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 4737-2021.png", "A 4737-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 4737-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 4737-2021.docx", "A 4737-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 4737-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 4737-2021.docx", "A 4737-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 4737-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 4737-2021.docx", "A 4737-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 4737-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 4737-2021.docx", "A 4737-2021")</f>
         <v/>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4897,27 +4897,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 16871-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 16871-2021.xlsx", "A 16871-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 16871-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 16871-2021.png", "A 16871-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 16871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 16871-2021.docx", "A 16871-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 16871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 16871-2021.docx", "A 16871-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 16871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 16871-2021.docx", "A 16871-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 16871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 16871-2021.docx", "A 16871-2021")</f>
         <v/>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4982,27 +4982,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 32873-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 32873-2021.xlsx", "A 32873-2021")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 32873-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 32873-2021.png", "A 32873-2021")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 32873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 32873-2021.docx", "A 32873-2021")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 32873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 32873-2021.docx", "A 32873-2021")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 32873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 32873-2021.docx", "A 32873-2021")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 32873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 32873-2021.docx", "A 32873-2021")</f>
         <v/>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5067,27 +5067,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 35200-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 35200-2021.xlsx", "A 35200-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 35200-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 35200-2021.png", "A 35200-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 35200-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 35200-2021.docx", "A 35200-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 35200-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 35200-2021.docx", "A 35200-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 35200-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 35200-2021.docx", "A 35200-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 35200-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 35200-2021.docx", "A 35200-2021")</f>
         <v/>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5152,27 +5152,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 73118-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 73118-2021.xlsx", "A 73118-2021")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 73118-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 73118-2021.png", "A 73118-2021")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 73118-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 73118-2021.docx", "A 73118-2021")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 73118-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 73118-2021.docx", "A 73118-2021")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 73118-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 73118-2021.docx", "A 73118-2021")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 73118-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 73118-2021.docx", "A 73118-2021")</f>
         <v/>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5237,31 +5237,31 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 15676-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 15676-2022.xlsx", "A 15676-2022")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 15676-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 15676-2022.png", "A 15676-2022")</f>
         <v/>
       </c>
       <c r="U54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 15676-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 15676-2022.png", "A 15676-2022")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 15676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 15676-2022.docx", "A 15676-2022")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 15676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 15676-2022.docx", "A 15676-2022")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 15676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 15676-2022.docx", "A 15676-2022")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 15676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 15676-2022.docx", "A 15676-2022")</f>
         <v/>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5326,27 +5326,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 16882-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 16882-2022.xlsx", "A 16882-2022")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 16882-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 16882-2022.png", "A 16882-2022")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 16882-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 16882-2022.docx", "A 16882-2022")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 16882-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 16882-2022.docx", "A 16882-2022")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 16882-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 16882-2022.docx", "A 16882-2022")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 16882-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 16882-2022.docx", "A 16882-2022")</f>
         <v/>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5411,27 +5411,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 41652-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 41652-2022.xlsx", "A 41652-2022")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 41652-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 41652-2022.png", "A 41652-2022")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 41652-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 41652-2022.docx", "A 41652-2022")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 41652-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 41652-2022.docx", "A 41652-2022")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 41652-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 41652-2022.docx", "A 41652-2022")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 41652-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 41652-2022.docx", "A 41652-2022")</f>
         <v/>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5496,27 +5496,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 49123-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 49123-2022.xlsx", "A 49123-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 49123-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 49123-2022.png", "A 49123-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 49123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 49123-2022.docx", "A 49123-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 49123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 49123-2022.docx", "A 49123-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 49123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 49123-2022.docx", "A 49123-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 49123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 49123-2022.docx", "A 49123-2022")</f>
         <v/>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5586,27 +5586,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 57999-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 57999-2022.xlsx", "A 57999-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 57999-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 57999-2022.png", "A 57999-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 57999-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 57999-2022.docx", "A 57999-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 57999-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 57999-2022.docx", "A 57999-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 57999-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 57999-2022.docx", "A 57999-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 57999-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 57999-2022.docx", "A 57999-2022")</f>
         <v/>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5671,27 +5671,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 3677-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 3677-2023.xlsx", "A 3677-2023")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 3677-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 3677-2023.png", "A 3677-2023")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 3677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 3677-2023.docx", "A 3677-2023")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 3677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 3677-2023.docx", "A 3677-2023")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 3677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 3677-2023.docx", "A 3677-2023")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 3677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 3677-2023.docx", "A 3677-2023")</f>
         <v/>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5756,27 +5756,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 12184-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/artfynd/A 12184-2023.xlsx", "A 12184-2023")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 12184-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/kartor/A 12184-2023.png", "A 12184-2023")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 12184-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 12184-2023.docx", "A 12184-2023")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 12184-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 12184-2023.docx", "A 12184-2023")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 12184-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 12184-2023.docx", "A 12184-2023")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 12184-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 12184-2023.docx", "A 12184-2023")</f>
         <v/>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9630,23 +9630,23 @@
       </c>
       <c r="R125" s="2" t="inlineStr"/>
       <c r="U125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 70293-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 70293-2018.png", "A 70293-2018")</f>
         <v/>
       </c>
       <c r="V125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 70293-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 70293-2018.docx", "A 70293-2018")</f>
         <v/>
       </c>
       <c r="W125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 70293-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 70293-2018.docx", "A 70293-2018")</f>
         <v/>
       </c>
       <c r="X125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 70293-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 70293-2018.docx", "A 70293-2018")</f>
         <v/>
       </c>
       <c r="Y125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 70293-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 70293-2018.docx", "A 70293-2018")</f>
         <v/>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27118,23 +27118,23 @@
       </c>
       <c r="R424" s="2" t="inlineStr"/>
       <c r="U424">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 47977-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 47977-2020.png", "A 47977-2020")</f>
         <v/>
       </c>
       <c r="V424">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 47977-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 47977-2020.docx", "A 47977-2020")</f>
         <v/>
       </c>
       <c r="W424">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 47977-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 47977-2020.docx", "A 47977-2020")</f>
         <v/>
       </c>
       <c r="X424">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 47977-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 47977-2020.docx", "A 47977-2020")</f>
         <v/>
       </c>
       <c r="Y424">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 47977-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 47977-2020.docx", "A 47977-2020")</f>
         <v/>
       </c>
     </row>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38954,23 +38954,23 @@
       </c>
       <c r="R627" s="2" t="inlineStr"/>
       <c r="U627">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 23013-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/knärot/A 23013-2022.png", "A 23013-2022")</f>
         <v/>
       </c>
       <c r="V627">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 23013-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomål/A 23013-2022.docx", "A 23013-2022")</f>
         <v/>
       </c>
       <c r="W627">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 23013-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/klagomålsmail/A 23013-2022.docx", "A 23013-2022")</f>
         <v/>
       </c>
       <c r="X627">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 23013-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsyn/A 23013-2022.docx", "A 23013-2022")</f>
         <v/>
       </c>
       <c r="Y627">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 23013-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPVIDINGE/tillsynsmail/A 23013-2022.docx", "A 23013-2022")</f>
         <v/>
       </c>
     </row>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44923</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44937</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45091</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45103</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43696</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43861</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44022</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44054</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44073</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44089</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44091</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44132</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44207</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44295</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44550</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44663</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44858</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44900</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44950</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44998</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43326</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43326</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43326</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43327</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43328</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43368</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43374</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43377</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43385</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43391</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43429</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43429</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43429</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43429</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43429</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43429</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43429</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43429</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43429</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43429</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43430</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43430</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43430</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43430</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43433</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43434</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43437</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43441</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43441</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43441</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43446</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43446</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43452</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43474</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>43479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>43481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>43485</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43485</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43487</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43487</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43493</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43497</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43500</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43500</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43501</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43507</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43509</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43509</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43514</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43514</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43514</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43514</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43521</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43522</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43525</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43526</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43539</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43549</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43549</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43549</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43549</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43549</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43549</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43549</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43549</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>43549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43549</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43549</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>43549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43549</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43549</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43549</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>43560</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43563</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43573</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43573</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43573</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43581</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43590</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43590</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43590</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43591</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43591</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43591</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43598</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43599</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43599</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43599</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43599</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43599</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43600</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>43601</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>43623</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>43627</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>43628</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>43630</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>43636</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>43640</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43640</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>43640</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>43640</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43645</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43650</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43650</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43650</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43650</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43651</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43655</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43655</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43655</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>43655</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43655</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>43655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43659</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43663</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43664</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43668</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>43675</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>43675</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>43675</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43676</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>43677</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>43677</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>43678</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>43678</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>43678</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>43678</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>43684</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>43685</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>43689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>43690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>43690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>43693</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>43693</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>43696</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>43696</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>43696</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>43696</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>43703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>43706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>43707</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43707</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43707</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43707</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43710</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43711</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43712</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>43713</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43724</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43724</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43726</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43727</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43728</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43732</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>43738</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43740</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>43749</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>43752</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>43754</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>43756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>43756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>43766</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>43776</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>43782</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>43791</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>43797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>43797</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>43801</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43801</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>43802</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43811</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>43840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>43844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>43844</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>43845</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>43845</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>43846</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>43854</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>43854</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>43861</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>43871</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>43871</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>43875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>43880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43880</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>43880</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>43885</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43887</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>43888</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>43888</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>43889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>43894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>43896</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>43899</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>43902</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>43907</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>43907</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>43927</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>43944</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>43950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>43958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>43962</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43965</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43971</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43979</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43979</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43985</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43989</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43992</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44004</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44004</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44004</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44005</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44014</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44014</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44014</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44014</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44014</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44014</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44014</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44020</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44020</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44029</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44035</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44036</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>44054</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44054</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44056</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44064</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44067</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44068</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44069</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44069</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44069</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44069</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44069</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44069</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44069</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44073</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44073</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44073</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44085</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44088</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44097</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44097</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44098</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44099</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44102</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44105</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44105</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44119</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44119</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44119</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44120</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44120</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44124</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44124</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44127</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44127</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44140</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44140</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44140</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>44152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44153</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44154</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>44154</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44154</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44154</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44154</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44154</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44154</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44154</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44154</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>44155</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44158</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44158</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44158</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44160</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44160</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44162</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44165</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44165</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44167</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44167</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44167</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44168</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44168</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44175</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44175</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44175</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44175</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44175</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44176</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44193</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44201</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44201</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44201</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44201</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44201</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44201</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44202</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44207</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44207</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44207</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44207</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44207</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44208</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44209</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44209</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44214</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44217</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44225</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44225</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44225</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44225</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>44225</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44228</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>44228</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>44228</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>44229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44229</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44236</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         <v>44237</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44242</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44242</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>44242</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44242</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44242</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44243</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44250</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44250</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44250</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44253</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44260</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44274</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44276</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44278</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>44284</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>44285</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44308</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44308</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44321</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>44321</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44327</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>44354</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>44371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44375</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44375</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44375</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44375</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44386</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44386</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44393</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44396</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44400</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44406</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44410</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44434</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44438</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44438</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44442</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44445</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44446</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44446</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44447</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>44456</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44456</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>44456</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>44459</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>44466</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44470</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44475</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44476</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44476</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44487</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44503</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>44510</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>44517</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>44524</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>44524</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44524</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44524</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44524</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>44524</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>44524</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>44526</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44531</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44536</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44544</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44566</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44566</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44574</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44578</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44580</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44582</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44582</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44582</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>44593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44599</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44602</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44602</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44602</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44603</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44603</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44607</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44607</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44609</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>44610</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44610</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>44610</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>44622</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
         <v>44625</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>44637</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>44686</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44690</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44697</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44697</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44697</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44697</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44705</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44719</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44747</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44749</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44750</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44750</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
         <v>44757</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44757</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44790</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44790</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>44812</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44833</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44838</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44845</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44856</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44858</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44858</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44859</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44859</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44859</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>44859</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>44859</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>44859</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44859</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44859</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44867</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44870</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44887</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44893</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44895</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44900</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44910</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44911</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44923</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44923</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44923</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44937</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44939</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44939</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44946</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44951</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44959</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44977</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44984</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44984</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44984</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44985</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>44998</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44999</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44999</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45001</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45007</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>45009</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>45009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45009</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45012</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45013</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42811,7 +42811,7 @@
         <v>45028</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>45028</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45029</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>45036</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>45054</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>45057</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45067</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>45076</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45079</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45082</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45082</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>45085</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45085</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45085</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45089</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45089</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45090</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>45091</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45091</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>45091</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45093</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>45098</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44965,7 +44965,7 @@
         <v>45106</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45117</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45118</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>45118</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>45129</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>45140</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>45140</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45146</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45146</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45146</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>45146</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>45146</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45820,7 +45820,7 @@
         <v>45146</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45877,7 +45877,7 @@
         <v>45146</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45934,7 +45934,7 @@
         <v>45146</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45149</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>45149</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>45159</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>45159</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45164</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y753"/>
+  <dimension ref="A1:Y754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43570</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44705</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43712</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43717</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44494</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45089</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43500</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44175</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44995</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43979</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44209</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44315</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44455</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <